--- a/SQL-Normalization_Relations.xlsx
+++ b/SQL-Normalization_Relations.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Normalization" sheetId="1" r:id="rId1"/>
+    <sheet name="Relationships" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>pid-pk</t>
+  </si>
+  <si>
+    <t>Subjectid</t>
+  </si>
+  <si>
+    <t>subject table</t>
+  </si>
+  <si>
+    <t>student_subject table</t>
+  </si>
+  <si>
+    <t>address table</t>
+  </si>
+  <si>
+    <t>student table</t>
   </si>
 </sst>
 </file>
@@ -357,8 +372,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -649,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1001,8 +1044,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1"/>
+    <row r="19" spans="1:12" ht="12" customHeight="1">
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="20" spans="1:12">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
         <v>1</v>
@@ -1140,7 +1190,7 @@
     <row r="28" spans="1:12">
       <c r="E28" s="3"/>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1158,6 +1208,9 @@
       </c>
     </row>
     <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
       <c r="F30">
         <v>1</v>
       </c>
@@ -1296,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
